--- a/Subnational Corruption Index.xlsx
+++ b/Subnational Corruption Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Kenya Data\Charts and Graphs\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A07F65E-7876-4A04-9EF1-911E76E9F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA5C367-E35C-4934-B7EE-3A2DB5B3A9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8C4DFD1A-4640-4DB6-BCED-472B8C30A642}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>County</t>
   </si>
@@ -293,12 +293,6 @@
   </si>
   <si>
     <t>Rank</t>
-  </si>
-  <si>
-    <t>Min_Max</t>
-  </si>
-  <si>
-    <t>Min Max</t>
   </si>
   <si>
     <t>z-Score(graft_mention_EACC)</t>
@@ -6082,10 +6076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9D3270-826A-4A86-9BE6-A6D743BBD839}">
-  <dimension ref="A1:AF52"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6117,13 +6111,13 @@
     <col min="25" max="25" width="21.88671875" customWidth="1"/>
     <col min="26" max="26" width="18.88671875" customWidth="1"/>
     <col min="28" max="28" width="8.88671875" style="6"/>
-    <col min="33" max="33" width="18.33203125" customWidth="1"/>
-    <col min="34" max="34" width="24.88671875" customWidth="1"/>
-    <col min="35" max="35" width="20.88671875" customWidth="1"/>
-    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="31" max="31" width="18.33203125" customWidth="1"/>
+    <col min="32" max="32" width="24.88671875" customWidth="1"/>
+    <col min="33" max="33" width="20.88671875" customWidth="1"/>
+    <col min="35" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="15" customFormat="1">
+    <row r="1" spans="1:30" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6125,7 @@
         <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>76</v>
@@ -6214,14 +6208,8 @@
       <c r="AD1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -6331,16 +6319,8 @@
       <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AE2">
-        <f>(AC2-AC48)/AC2-AC48</f>
-        <v>16.807032490305023</v>
-      </c>
-      <c r="AF2">
-        <f>((AC2-$AC$48)/($AC$2-$AC$48))*100</f>
-        <v>100</v>
-      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -6348,11 +6328,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C2:C48" si="17">(B3-$B$50)/$B$51</f>
+        <f t="shared" ref="C3:C48" si="17">(B3-$B$50)/$B$51</f>
         <v>-1.091901728844405E-2</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D2:D48" si="18">(C3*$B$52)</f>
+        <f t="shared" ref="D3:D48" si="18">(C3*$B$52)</f>
         <v>-3.6131028207461363E-2</v>
       </c>
       <c r="E3">
@@ -6450,16 +6430,8 @@
       <c r="AD3">
         <v>2</v>
       </c>
-      <c r="AE3">
-        <f>(AC3-$AC$48)/$AC$2-$AC$48</f>
-        <v>16.203874842777381</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF48" si="19">((AC3-$AC$48)/($AC$2-$AC$48))*100</f>
-        <v>61.449953793754418</v>
-      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6569,16 +6541,8 @@
       <c r="AD4">
         <v>3</v>
       </c>
-      <c r="AE4">
-        <f t="shared" ref="AE4:AE48" si="20">(AC4-$AC$48)/$AC$2-$AC$48</f>
-        <v>16.131075580640548</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="19"/>
-        <v>56.797082474524586</v>
-      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -6688,16 +6652,8 @@
       <c r="AD5">
         <v>4</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="20"/>
-        <v>16.034860758175959</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="19"/>
-        <v>50.647635697319096</v>
-      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -6807,16 +6763,8 @@
       <c r="AD6">
         <v>5</v>
       </c>
-      <c r="AE6">
-        <f t="shared" si="20"/>
-        <v>16.003046563669823</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="19"/>
-        <v>48.614272324984796</v>
-      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6926,16 +6874,8 @@
       <c r="AD7">
         <v>6</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="20"/>
-        <v>15.978294710108358</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="19"/>
-        <v>47.032289401621519</v>
-      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -7045,16 +6985,8 @@
       <c r="AD8">
         <v>7</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="20"/>
-        <v>15.962015950035541</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="19"/>
-        <v>45.991853363780002</v>
-      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -7164,16 +7096,8 @@
       <c r="AD9">
         <v>8</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="20"/>
-        <v>15.953146303933131</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="19"/>
-        <v>45.424961327373737</v>
-      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -7283,16 +7207,8 @@
       <c r="AD10">
         <v>9</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="20"/>
-        <v>15.951743177708741</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="19"/>
-        <v>45.335282317242282</v>
-      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -7402,16 +7318,8 @@
       <c r="AD11">
         <v>10</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="20"/>
-        <v>15.947788906902831</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="19"/>
-        <v>45.082550178464558</v>
-      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -7521,16 +7429,8 @@
       <c r="AD12">
         <v>11</v>
       </c>
-      <c r="AE12">
-        <f t="shared" si="20"/>
-        <v>15.918637509776415</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="19"/>
-        <v>43.219376079940893</v>
-      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -7640,16 +7540,8 @@
       <c r="AD13">
         <v>12</v>
       </c>
-      <c r="AE13">
-        <f t="shared" si="20"/>
-        <v>15.904892536242496</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="19"/>
-        <v>42.340883753750362</v>
-      </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7759,16 +7651,8 @@
       <c r="AD14">
         <v>13</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="20"/>
-        <v>15.872908249258568</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="19"/>
-        <v>40.296649139204142</v>
-      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -7878,16 +7762,8 @@
       <c r="AD15">
         <v>14</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="20"/>
-        <v>15.859784188054563</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="19"/>
-        <v>39.457841626936286</v>
-      </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7997,16 +7873,8 @@
       <c r="AD16">
         <v>15</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="20"/>
-        <v>15.851341156044077</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="19"/>
-        <v>38.918216082173387</v>
-      </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -8116,16 +7984,8 @@
       <c r="AD17">
         <v>16</v>
       </c>
-      <c r="AE17">
-        <f t="shared" si="20"/>
-        <v>15.850254880063419</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="19"/>
-        <v>38.848788148334293</v>
-      </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -8235,16 +8095,8 @@
       <c r="AD18">
         <v>17</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="20"/>
-        <v>15.840746779366969</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="19"/>
-        <v>38.241090106728926</v>
-      </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -8354,16 +8206,8 @@
       <c r="AD19">
         <v>18</v>
       </c>
-      <c r="AE19">
-        <f t="shared" si="20"/>
-        <v>15.81528733028501</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="19"/>
-        <v>36.613882124673012</v>
-      </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -8473,16 +8317,8 @@
       <c r="AD20">
         <v>19</v>
       </c>
-      <c r="AE20">
-        <f t="shared" si="20"/>
-        <v>15.814362035929507</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="19"/>
-        <v>36.554743124603611</v>
-      </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -8592,16 +8428,8 @@
       <c r="AD21">
         <v>20</v>
       </c>
-      <c r="AE21">
-        <f t="shared" si="20"/>
-        <v>15.813391877856422</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="19"/>
-        <v>36.492736717658211</v>
-      </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -8711,16 +8539,8 @@
       <c r="AD22">
         <v>21</v>
       </c>
-      <c r="AE22">
-        <f t="shared" si="20"/>
-        <v>15.811232496860875</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="19"/>
-        <v>36.354722655337333</v>
-      </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -8830,16 +8650,8 @@
       <c r="AD23">
         <v>22</v>
       </c>
-      <c r="AE23">
-        <f t="shared" si="20"/>
-        <v>15.806609763659486</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="19"/>
-        <v>36.059266601280484</v>
-      </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -8949,16 +8761,8 @@
       <c r="AD24">
         <v>23</v>
       </c>
-      <c r="AE24">
-        <f t="shared" si="20"/>
-        <v>15.799125003370278</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="19"/>
-        <v>35.580887762556763</v>
-      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -9068,16 +8872,8 @@
       <c r="AD25">
         <v>24</v>
       </c>
-      <c r="AE25">
-        <f t="shared" si="20"/>
-        <v>15.798448526855577</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="19"/>
-        <v>35.537651635142851</v>
-      </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -9187,16 +8983,8 @@
       <c r="AD26">
         <v>25</v>
       </c>
-      <c r="AE26">
-        <f t="shared" si="20"/>
-        <v>15.794316419303843</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="19"/>
-        <v>35.273553289210426</v>
-      </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -9306,16 +9094,8 @@
       <c r="AD27">
         <v>26</v>
       </c>
-      <c r="AE27">
-        <f t="shared" si="20"/>
-        <v>15.793617223354023</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="19"/>
-        <v>35.22886507828705</v>
-      </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -9425,16 +9205,8 @@
       <c r="AD28">
         <v>27</v>
       </c>
-      <c r="AE28">
-        <f t="shared" si="20"/>
-        <v>15.789901399734596</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="19"/>
-        <v>34.991372985116435</v>
-      </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -9544,16 +9316,8 @@
       <c r="AD29">
         <v>28</v>
       </c>
-      <c r="AE29">
-        <f t="shared" si="20"/>
-        <v>15.782049166927699</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="19"/>
-        <v>34.489507612491472</v>
-      </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -9663,16 +9427,8 @@
       <c r="AD30">
         <v>29</v>
       </c>
-      <c r="AE30">
-        <f t="shared" si="20"/>
-        <v>15.780437150123095</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="19"/>
-        <v>34.38647762927333</v>
-      </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -9782,16 +9538,8 @@
       <c r="AD31">
         <v>30</v>
       </c>
-      <c r="AE31">
-        <f t="shared" si="20"/>
-        <v>15.747391163480591</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="19"/>
-        <v>32.274385844942337</v>
-      </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -9901,16 +9649,8 @@
       <c r="AD32">
         <v>31</v>
       </c>
-      <c r="AE32">
-        <f t="shared" si="20"/>
-        <v>15.735760849236847</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="19"/>
-        <v>31.531049250724674</v>
-      </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -10020,16 +9760,8 @@
       <c r="AD33">
         <v>32</v>
       </c>
-      <c r="AE33">
-        <f t="shared" si="20"/>
-        <v>15.731225596643899</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="19"/>
-        <v>31.241184407376029</v>
-      </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -10139,16 +9871,8 @@
       <c r="AD34">
         <v>33</v>
       </c>
-      <c r="AE34">
-        <f t="shared" si="20"/>
-        <v>15.721760028948458</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="19"/>
-        <v>30.636204807891037</v>
-      </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -10258,16 +9982,8 @@
       <c r="AD35">
         <v>34</v>
       </c>
-      <c r="AE35">
-        <f t="shared" si="20"/>
-        <v>15.720172527710455</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="19"/>
-        <v>30.534741705618657</v>
-      </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -10377,16 +10093,8 @@
       <c r="AD36">
         <v>35</v>
       </c>
-      <c r="AE36">
-        <f t="shared" si="20"/>
-        <v>15.716976610539884</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="19"/>
-        <v>30.330478765238322</v>
-      </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -10496,16 +10204,8 @@
       <c r="AD37">
         <v>36</v>
       </c>
-      <c r="AE37">
-        <f t="shared" si="20"/>
-        <v>15.706918364492253</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="19"/>
-        <v>29.687618890246554</v>
-      </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -10615,16 +10315,8 @@
       <c r="AD38">
         <v>37</v>
       </c>
-      <c r="AE38">
-        <f t="shared" si="20"/>
-        <v>15.678676880281916</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="19"/>
-        <v>27.882600706851115</v>
-      </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -10734,16 +10426,8 @@
       <c r="AD39">
         <v>38</v>
       </c>
-      <c r="AE39">
-        <f t="shared" si="20"/>
-        <v>15.677448434702823</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" si="19"/>
-        <v>27.804086185763548</v>
-      </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -10853,16 +10537,8 @@
       <c r="AD40">
         <v>39</v>
       </c>
-      <c r="AE40">
-        <f t="shared" si="20"/>
-        <v>15.64699266850077</v>
-      </c>
-      <c r="AF40">
-        <f t="shared" si="19"/>
-        <v>25.857545013404572</v>
-      </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -10972,16 +10648,8 @@
       <c r="AD41">
         <v>40</v>
       </c>
-      <c r="AE41">
-        <f t="shared" si="20"/>
-        <v>15.646540450891463</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="19"/>
-        <v>25.828642105838767</v>
-      </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -11091,16 +10759,8 @@
       <c r="AD42">
         <v>41</v>
       </c>
-      <c r="AE42">
-        <f t="shared" si="20"/>
-        <v>15.612611284383396</v>
-      </c>
-      <c r="AF42">
-        <f t="shared" si="19"/>
-        <v>23.660103014961326</v>
-      </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -11205,16 +10865,8 @@
       <c r="AD43">
         <v>42</v>
       </c>
-      <c r="AE43">
-        <f t="shared" si="20"/>
-        <v>15.567936695672918</v>
-      </c>
-      <c r="AF43">
-        <f t="shared" si="19"/>
-        <v>20.80478406792767</v>
-      </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -11324,16 +10976,8 @@
       <c r="AD44">
         <v>43</v>
       </c>
-      <c r="AE44">
-        <f t="shared" si="20"/>
-        <v>15.542617480793266</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="19"/>
-        <v>19.186538974762843</v>
-      </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -11443,16 +11087,8 @@
       <c r="AD45">
         <v>44</v>
       </c>
-      <c r="AE45">
-        <f t="shared" si="20"/>
-        <v>15.53078035652215</v>
-      </c>
-      <c r="AF45">
-        <f t="shared" si="19"/>
-        <v>18.42998438332053</v>
-      </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -11562,16 +11198,8 @@
       <c r="AD46">
         <v>45</v>
       </c>
-      <c r="AE46">
-        <f t="shared" si="20"/>
-        <v>15.530322947581233</v>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="19"/>
-        <v>18.400749678463811</v>
-      </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -11681,16 +11309,8 @@
       <c r="AD47">
         <v>46</v>
       </c>
-      <c r="AE47">
-        <f t="shared" si="20"/>
-        <v>15.508152819324213</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" si="19"/>
-        <v>16.983774411367794</v>
-      </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -11785,14 +11405,6 @@
       </c>
       <c r="AD48">
         <v>47</v>
-      </c>
-      <c r="AE48">
-        <f t="shared" si="20"/>
-        <v>15.242423088021296</v>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="19"/>
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:27">
